--- a/Data/NH4-July11ab.xlsx
+++ b/Data/NH4-July11ab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaleighdavis/Dropbox/TEAMM 2018 Pond Nutrients/Raw Data Files/July 11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaleighdavis/Projects/TEAMM/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF63F69B-E016-0645-873F-0787256FE394}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8749698-1275-5C41-8112-580313A8EAB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1240" windowWidth="22040" windowHeight="10680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1240" windowWidth="23300" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>NH4</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>PLATE SETUP</t>
+  </si>
+  <si>
+    <t>sfdhjk</t>
   </si>
 </sst>
 </file>
@@ -440,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -544,6 +547,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="2">
         <v>5.7299999999999997E-2</v>
       </c>
